--- a/power_bi/Plano_de_Ensino_PowerBI_2026.xlsx
+++ b/power_bi/Plano_de_Ensino_PowerBI_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellifabio\Desktop\senai2026\power_bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC8BFB-6DF6-49EA-9196-3EE0DC04336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A709C955-DB15-4347-81A6-5FF3079E06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
   <si>
     <t>PLANO DE ENSINO</t>
   </si>
@@ -523,92 +523,109 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1337,200 +1354,49 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,34 +1429,262 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1604,83 +1698,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2136,134 +2153,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="130" t="s">
+      <c r="D3" s="61"/>
+      <c r="E3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="138" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138" t="s">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="137"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="134" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="116" t="s">
+      <c r="F4" s="76"/>
+      <c r="G4" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="117" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="126" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="128" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="132" t="s">
+      <c r="D7" s="90"/>
+      <c r="E7" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
     </row>
     <row r="10" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
@@ -2284,14 +2301,14 @@
       <c r="F10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="125"/>
+      <c r="J10" s="92"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2329,14 +2346,14 @@
       <c r="F11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="52" t="s">
+      <c r="H11" s="66"/>
+      <c r="I11" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="53"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2374,14 +2391,14 @@
       <c r="F12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="118" t="s">
+      <c r="H12" s="66"/>
+      <c r="I12" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="119"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2419,14 +2436,14 @@
       <c r="F13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="56" t="s">
+      <c r="H13" s="66"/>
+      <c r="I13" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="131"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2464,14 +2481,14 @@
       <c r="F14" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="56" t="s">
+      <c r="H14" s="66"/>
+      <c r="I14" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="131"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2509,14 +2526,14 @@
       <c r="F15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="56" t="s">
+      <c r="H15" s="66"/>
+      <c r="I15" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="131"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2554,14 +2571,14 @@
       <c r="F16" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="56" t="s">
+      <c r="H16" s="66"/>
+      <c r="I16" s="130" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="131"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2599,14 +2616,14 @@
       <c r="F17" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="56" t="s">
+      <c r="H17" s="66"/>
+      <c r="I17" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="131"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2644,14 +2661,14 @@
       <c r="F18" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="56" t="s">
+      <c r="H18" s="66"/>
+      <c r="I18" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="131"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2682,10 +2699,10 @@
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2705,18 +2722,18 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="134"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2736,18 +2753,18 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2767,18 +2784,18 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2798,18 +2815,18 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2829,18 +2846,18 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="129"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2860,18 +2877,18 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2891,16 +2908,16 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2920,18 +2937,18 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="103" t="s">
+      <c r="A27" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="105"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="142"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2951,16 +2968,16 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="106"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="108"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="95"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2980,18 +2997,18 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="114" t="s">
+      <c r="A29" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3011,22 +3028,22 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102" t="s">
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="115" t="s">
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3046,12 +3063,12 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="101"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
       <c r="G31" s="31">
         <v>1</v>
       </c>
@@ -3083,16 +3100,16 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="122" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="97"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="165" t="s">
+      <c r="C32" s="98"/>
+      <c r="D32" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="122"/>
-      <c r="F32" s="121"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="88"/>
       <c r="G32" s="12"/>
       <c r="H32" s="28"/>
       <c r="I32" s="29"/>
@@ -3116,16 +3133,16 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="164"/>
-      <c r="D33" s="165" t="s">
+      <c r="C33" s="98"/>
+      <c r="D33" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="122"/>
-      <c r="F33" s="121"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="12"/>
       <c r="H33" s="28"/>
       <c r="I33" s="23"/>
@@ -3149,14 +3166,14 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="95"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="166" t="s">
+      <c r="C34" s="98"/>
+      <c r="D34" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="122"/>
-      <c r="F34" s="121"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="88"/>
       <c r="G34" s="12"/>
       <c r="H34" s="28"/>
       <c r="I34" s="23"/>
@@ -3180,16 +3197,16 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95"/>
-      <c r="B35" s="110" t="s">
+      <c r="A35" s="123"/>
+      <c r="B35" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="111" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="112"/>
-      <c r="F35" s="113"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="81"/>
       <c r="G35" s="12"/>
       <c r="H35" s="28"/>
       <c r="I35" s="23"/>
@@ -3213,16 +3230,16 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="95"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="123"/>
+      <c r="B36" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="86" t="s">
+      <c r="C36" s="78"/>
+      <c r="D36" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="88"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="108"/>
       <c r="G36" s="12"/>
       <c r="H36" s="28"/>
       <c r="I36" s="23"/>
@@ -3246,16 +3263,16 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="96"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="124"/>
+      <c r="B37" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="91" t="s">
+      <c r="C37" s="110"/>
+      <c r="D37" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="93"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="113"/>
       <c r="G37" s="12"/>
       <c r="H37" s="28"/>
       <c r="I37" s="23"/>
@@ -3279,18 +3296,18 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="72" t="s">
+      <c r="C38" s="118"/>
+      <c r="D38" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="63"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="121"/>
       <c r="G38" s="12"/>
       <c r="H38" s="28"/>
       <c r="I38" s="23"/>
@@ -3314,16 +3331,16 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="173"/>
-      <c r="B39" s="73" t="s">
+      <c r="A39" s="115"/>
+      <c r="B39" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="72" t="s">
+      <c r="C39" s="118"/>
+      <c r="D39" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="121"/>
       <c r="G39" s="12"/>
       <c r="H39" s="28"/>
       <c r="I39" s="23"/>
@@ -3347,16 +3364,16 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="173"/>
-      <c r="B40" s="73" t="s">
+      <c r="A40" s="115"/>
+      <c r="B40" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="72" t="s">
+      <c r="C40" s="118"/>
+      <c r="D40" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="63"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
       <c r="G40" s="12"/>
       <c r="H40" s="28"/>
       <c r="I40" s="23"/>
@@ -3380,16 +3397,16 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="174"/>
-      <c r="B41" s="73" t="s">
+      <c r="A41" s="116"/>
+      <c r="B41" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="72" t="s">
+      <c r="C41" s="118"/>
+      <c r="D41" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="63"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
       <c r="G41" s="12"/>
       <c r="H41" s="28"/>
       <c r="I41" s="23"/>
@@ -3413,14 +3430,14 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3442,18 +3459,18 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84" t="s">
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="82"/>
-      <c r="H43" s="83"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="103"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3478,17 +3495,17 @@
       <c r="A44" s="13">
         <v>5</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64">
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="126">
         <v>100</v>
       </c>
-      <c r="G44" s="62"/>
-      <c r="H44" s="63"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="121"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3513,17 +3530,17 @@
       <c r="A45" s="13">
         <v>4</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64">
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="126">
         <v>80</v>
       </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="121"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3548,17 +3565,17 @@
       <c r="A46" s="13">
         <v>3</v>
       </c>
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64">
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="126">
         <v>65</v>
       </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="63"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="121"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3583,17 +3600,17 @@
       <c r="A47" s="13">
         <v>2</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64">
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="126">
         <v>50</v>
       </c>
-      <c r="G47" s="62"/>
-      <c r="H47" s="63"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="121"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3618,17 +3635,17 @@
       <c r="A48" s="13">
         <v>1</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64">
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="126">
         <v>30</v>
       </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="63"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="121"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3720,16 +3737,16 @@
       <c r="D51" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="144">
         <v>1</v>
       </c>
-      <c r="F51" s="65">
+      <c r="F51" s="144">
         <v>0</v>
       </c>
-      <c r="G51" s="67" t="s">
+      <c r="G51" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="69" t="s">
+      <c r="H51" s="147" t="s">
         <v>27</v>
       </c>
       <c r="I51" s="1"/>
@@ -3759,10 +3776,10 @@
       <c r="D52" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="70"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="148"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3784,18 +3801,18 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="143"/>
+      <c r="J53" s="143"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3815,16 +3832,16 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
+      <c r="A54" s="143"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
+      <c r="J54" s="143"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -29974,19 +29991,69 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A53:J54"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="A29:J29"/>
@@ -30003,69 +30070,19 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A53:J54"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <phoneticPr fontId="37" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -30079,8 +30096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA976"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30099,16 +30116,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="156"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="160"/>
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -30129,16 +30146,16 @@
       <c r="Z1" s="8"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="162"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -30159,16 +30176,16 @@
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -30189,16 +30206,16 @@
       <c r="Z3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -30219,16 +30236,16 @@
       <c r="Z4" s="8"/>
     </row>
     <row r="5" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -30249,14 +30266,14 @@
       <c r="Z5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -30276,16 +30293,16 @@
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -30306,16 +30323,16 @@
       <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -30336,14 +30353,14 @@
       <c r="Z8" s="8"/>
     </row>
     <row r="9" spans="1:27" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="178"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -30364,16 +30381,16 @@
       <c r="Z9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -30394,16 +30411,16 @@
       <c r="Z10" s="10"/>
     </row>
     <row r="11" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="167" t="s">
+      <c r="A11" s="169" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -30423,16 +30440,16 @@
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="168"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="174"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -30453,22 +30470,22 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="159" t="s">
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="169" t="s">
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -30487,20 +30504,20 @@
       <c r="Z13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="151"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="171" t="s">
+      <c r="A14" s="164"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="170" t="s">
+      <c r="I14" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="170" t="s">
+      <c r="J14" s="53" t="s">
         <v>110</v>
       </c>
       <c r="K14" s="8"/>
@@ -30521,17 +30538,19 @@
       <c r="Z14" s="8"/>
     </row>
     <row r="15" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="94" t="s">
+      <c r="A15" s="122" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="97"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="165" t="s">
+      <c r="C15" s="98"/>
+      <c r="D15" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="12"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -30554,17 +30573,19 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95"/>
+      <c r="A16" s="123"/>
       <c r="B16" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="12"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="28"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -30587,15 +30608,17 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="95"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="97"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="166" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="12"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
@@ -30618,17 +30641,19 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
-      <c r="B18" s="110" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="111" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="12"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="28"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
@@ -30651,17 +30676,19 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="95"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="123"/>
+      <c r="B19" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="86" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="12"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="28"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -30684,17 +30711,19 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="96"/>
-      <c r="B20" s="89" t="s">
+      <c r="A20" s="124"/>
+      <c r="B20" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91" t="s">
+      <c r="C20" s="110"/>
+      <c r="D20" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="12"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="28"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -30717,19 +30746,21 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="72" t="s">
+      <c r="C21" s="118"/>
+      <c r="D21" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="12"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="28"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -30752,17 +30783,19 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="173"/>
-      <c r="B22" s="73" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="72" t="s">
+      <c r="C22" s="118"/>
+      <c r="D22" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="12"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="28"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
@@ -30785,17 +30818,19 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173"/>
-      <c r="B23" s="73" t="s">
+      <c r="A23" s="115"/>
+      <c r="B23" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="72" t="s">
+      <c r="C23" s="118"/>
+      <c r="D23" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="28"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -30818,17 +30853,19 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="174"/>
-      <c r="B24" s="73" t="s">
+      <c r="A24" s="116"/>
+      <c r="B24" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="72" t="s">
+      <c r="C24" s="118"/>
+      <c r="D24" s="119" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="12"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="28"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -30879,18 +30916,18 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="7"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -30914,17 +30951,17 @@
       <c r="A27" s="13">
         <v>5</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64">
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="126">
         <v>100</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="121"/>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -30948,17 +30985,17 @@
       <c r="A28" s="13">
         <v>4</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64">
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="126">
         <v>80</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -30982,17 +31019,17 @@
       <c r="A29" s="13">
         <v>3</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64">
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="126">
         <v>65</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="63"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -31016,17 +31053,17 @@
       <c r="A30" s="13">
         <v>2</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64">
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="126">
         <v>50</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="121"/>
       <c r="I30" s="7"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -31050,17 +31087,17 @@
       <c r="A31" s="13">
         <v>1</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64">
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="126">
         <v>30</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="121"/>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
@@ -31149,16 +31186,16 @@
       <c r="D34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="163">
+      <c r="E34" s="157">
         <v>1</v>
       </c>
-      <c r="F34" s="163">
+      <c r="F34" s="157">
         <v>0</v>
       </c>
-      <c r="G34" s="146" t="s">
+      <c r="G34" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="148" t="s">
+      <c r="H34" s="177" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="7"/>
@@ -31187,10 +31224,10 @@
       <c r="D35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="149"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="178"/>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -37040,6 +37077,43 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="A21:A24"/>
@@ -37056,43 +37130,6 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D13:G14"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
